--- a/data/trans_dic/P1438_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1438_2023-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.03171369537928267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02969077727074224</v>
+        <v>0.02969077727074225</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0143825087114288</v>
+        <v>0.01310579819046384</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02022302710507337</v>
+        <v>0.01895069516316254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02038236503184149</v>
+        <v>0.02072554266682954</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0475040207858809</v>
+        <v>0.04625273133210903</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04844037258473342</v>
+        <v>0.04846041049461008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04222715000833292</v>
+        <v>0.04321454779687846</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.07416328391633847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06095164124377404</v>
+        <v>0.06095164124377405</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03129994132363319</v>
+        <v>0.02838783528325143</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05688680644917286</v>
+        <v>0.05757137770484091</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04854158203357915</v>
+        <v>0.04887529817402617</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07404165091155204</v>
+        <v>0.07053739143270914</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09582740909423507</v>
+        <v>0.0960961718764943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07596083893961397</v>
+        <v>0.07649598739451507</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07240132017875139</v>
+        <v>0.07485667383287908</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1388664802760426</v>
+        <v>0.1411739049871669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1153662907910954</v>
+        <v>0.1161337744279738</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1309480819650282</v>
+        <v>0.131454514926948</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1982213922931286</v>
+        <v>0.2016235394656647</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1579725358369774</v>
+        <v>0.1557805020976985</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04570060372403374</v>
+        <v>0.04570060372403373</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07646881295493489</v>
+        <v>0.07646881295493492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.06202922723393276</v>
+        <v>0.06202922723393275</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02681849674126463</v>
+        <v>0.02649620747767131</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05862914852541972</v>
+        <v>0.05845983092733353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04828488993903364</v>
+        <v>0.0479183332359252</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07367378720485726</v>
+        <v>0.07286829320123213</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1002216421286066</v>
+        <v>0.1002425832609733</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07865195612015681</v>
+        <v>0.07770023867203336</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.03574936524419844</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.08521250206870933</v>
+        <v>0.0852125020687093</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.06169087565303633</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01975562996138565</v>
+        <v>0.01947736301606445</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06460468427374591</v>
+        <v>0.06448320268121645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04720483905004212</v>
+        <v>0.04620702201702929</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06201449522074426</v>
+        <v>0.05984677390896321</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1142043621043238</v>
+        <v>0.1152872157082799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08195162706235787</v>
+        <v>0.07855623284979263</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.1345118390939514</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1963614013591249</v>
+        <v>0.1963614013591248</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1649958822904393</v>
+        <v>0.1649958822904394</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1038739674492173</v>
+        <v>0.1035956176357759</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1615476109881094</v>
+        <v>0.165499635503011</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1401926055689907</v>
+        <v>0.1434833006252594</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1690046629813622</v>
+        <v>0.1708182470635693</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2311385831477034</v>
+        <v>0.2341922322711998</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1891400925353621</v>
+        <v>0.1927248578842169</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.03314387729796685</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.087366815604161</v>
+        <v>0.08736681560416104</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.06123501211291801</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.021650293054518</v>
+        <v>0.02219648401133368</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07158291142105187</v>
+        <v>0.07051176748666023</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05146383468255928</v>
+        <v>0.05015993298215102</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04846202296572051</v>
+        <v>0.04999011800041261</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1076816127365373</v>
+        <v>0.1059154491505151</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07363789365623295</v>
+        <v>0.07396882005671662</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01072992194421213</v>
+        <v>0.01019246348610916</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03341813480607499</v>
+        <v>0.03370907353198865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02387990954199662</v>
+        <v>0.02431796849319613</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02885882036595994</v>
+        <v>0.02810185545831934</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05718901343606771</v>
+        <v>0.05745037662229192</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.039374388339013</v>
+        <v>0.03906415755231328</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.04639482372672283</v>
+        <v>0.04639482372672282</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.08531113403839566</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.040504373267947</v>
+        <v>0.04032425447296011</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.07736388730294527</v>
+        <v>0.07819012130050507</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06184074404569259</v>
+        <v>0.06166918221837801</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05310143996937209</v>
+        <v>0.05351329065679152</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09231159527093333</v>
+        <v>0.09292130700815769</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07146067979480912</v>
+        <v>0.0712123005197273</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4586</v>
+        <v>4179</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6392</v>
+        <v>5990</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12941</v>
+        <v>13159</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15146</v>
+        <v>14747</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15310</v>
+        <v>15316</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26810</v>
+        <v>27437</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16578</v>
+        <v>15036</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31049</v>
+        <v>31423</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>52205</v>
+        <v>52564</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39217</v>
+        <v>37361</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52303</v>
+        <v>52450</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>81694</v>
+        <v>82269</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22878</v>
+        <v>23654</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49489</v>
+        <v>50312</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>77569</v>
+        <v>78085</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41379</v>
+        <v>41539</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70642</v>
+        <v>71855</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>106217</v>
+        <v>104743</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10007</v>
+        <v>9887</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24739</v>
+        <v>24668</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38392</v>
+        <v>38100</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27491</v>
+        <v>27190</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>42290</v>
+        <v>42298</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>62537</v>
+        <v>61780</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4063</v>
+        <v>4006</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14654</v>
+        <v>14626</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20416</v>
+        <v>19984</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12754</v>
+        <v>12308</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25904</v>
+        <v>26150</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>35443</v>
+        <v>33975</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>28119</v>
+        <v>28044</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>42503</v>
+        <v>43543</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>74836</v>
+        <v>76592</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>45751</v>
+        <v>46242</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>60812</v>
+        <v>61616</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>100964</v>
+        <v>102878</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>15522</v>
+        <v>15914</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>55169</v>
+        <v>54344</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>76560</v>
+        <v>74621</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>34745</v>
+        <v>35840</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>82991</v>
+        <v>81630</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>109548</v>
+        <v>110040</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8563</v>
+        <v>8134</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>27757</v>
+        <v>27999</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>38893</v>
+        <v>39606</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>23031</v>
+        <v>22427</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>47502</v>
+        <v>47719</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>64128</v>
+        <v>63623</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>142941</v>
+        <v>142306</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>288679</v>
+        <v>291763</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>448994</v>
+        <v>447748</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>187397</v>
+        <v>188850</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>344456</v>
+        <v>346731</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>518839</v>
+        <v>517036</v>
       </c>
     </row>
     <row r="40">
